--- a/report_binary_6000.xlsx
+++ b/report_binary_6000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,59 +441,267 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Committment Status EOD 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 0</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 0</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Generator Output EOD 1</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 1</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Generator Output EOD 2</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Generator Output EOD 3</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 3</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Generator Output EOD 4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 4</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Generator Output EOD 5</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 5</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 5</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 5</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Generator Output EOD 6</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 6</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 6</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 6</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 6.1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Committment Status EOD 6.1</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>SU EOD 6.1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>SD EOD 6.1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Generator Output EOD 6</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1243.999867440888</v>
+        <v>1244</v>
       </c>
       <c r="C2" t="n">
-        <v>1244.000240900932</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1244.000132978031</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1243.904683788389</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1244.000000846599</v>
+        <v>1244</v>
       </c>
       <c r="G2" t="n">
-        <v>1243.9999994066</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1243.999994544951</v>
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1244</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1243.999994544884</v>
       </c>
     </row>
     <row r="3">
@@ -501,25 +709,103 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1234.999867466066</v>
+        <v>1235</v>
       </c>
       <c r="C3" t="n">
-        <v>1235.000240713257</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1235.000132978126</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1234.904683787874</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1235.000000846585</v>
+        <v>1235</v>
       </c>
       <c r="G3" t="n">
-        <v>1234.999999410554</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1234.999994544935</v>
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1235</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1234.999994544867</v>
       </c>
     </row>
     <row r="4">
@@ -527,25 +813,103 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>880.9998694948735</v>
+        <v>881</v>
       </c>
       <c r="C4" t="n">
-        <v>881.000241223443</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>881.0001329778817</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>880.9046837892544</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>881.0000008466241</v>
+        <v>881</v>
       </c>
       <c r="G4" t="n">
-        <v>880.9999994000035</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>880.999994544977</v>
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>881</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>881</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>881</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>881</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>881</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>881</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>880.9999945449106</v>
       </c>
     </row>
     <row r="5">
@@ -553,25 +917,103 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>684.6998694943725</v>
+        <v>684.7</v>
       </c>
       <c r="C5" t="n">
-        <v>684.7002408378935</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>684.7001329780619</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>684.6046837882168</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>684.7000008465942</v>
+        <v>684.7</v>
       </c>
       <c r="G5" t="n">
-        <v>684.6999994079192</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>684.6999945449463</v>
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>684.7</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>684.6999945448792</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +1024,100 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>5.883992469669343e-05</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.481978359467721e-05</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>620.2000008561574</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>620.1999994092366</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>620.1999945449409</v>
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>620.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>620.1999945448739</v>
       </c>
     </row>
     <row r="7">
@@ -605,25 +1125,103 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>611.9998684092602</v>
+        <v>612</v>
       </c>
       <c r="C7" t="n">
-        <v>612.0002414229286</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>612.0001329777981</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>611.904683789772</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>612.0000008466395</v>
+        <v>612</v>
       </c>
       <c r="G7" t="n">
-        <v>611.9999993960405</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>611.9999945449924</v>
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>612</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>612</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>612</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>612</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>612</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>612</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>611.9999945449258</v>
       </c>
     </row>
     <row r="8">
@@ -631,25 +1229,103 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>372.1998778475094</v>
+        <v>372.2</v>
       </c>
       <c r="C8" t="n">
-        <v>372.2002354067895</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>372.2001329866023</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>372.1046837629849</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>372.2000008459119</v>
+        <v>372.2</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1999995961695</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>372.1999945441776</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>372.1999945441105</v>
       </c>
     </row>
     <row r="9">
@@ -657,25 +1333,103 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>372.1998778475094</v>
+        <v>372.2</v>
       </c>
       <c r="C9" t="n">
-        <v>372.2002354067895</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>372.2001329866023</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>372.1046837629849</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>372.2000008459119</v>
+        <v>372.2</v>
       </c>
       <c r="G9" t="n">
-        <v>372.1999995961695</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>372.1999945441776</v>
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>372.2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>372.1999945441105</v>
       </c>
     </row>
     <row r="10">
@@ -683,25 +1437,103 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>243.999869495178</v>
+        <v>244</v>
       </c>
       <c r="C10" t="n">
-        <v>244.0002414229285</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>244.0001329777987</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>243.9046837897725</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>244.0000008466396</v>
+        <v>244</v>
       </c>
       <c r="G10" t="n">
-        <v>243.9999993960408</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>243.9999945449936</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>244</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>244</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>244</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>244</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>244</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>244</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>243.9999945449264</v>
       </c>
     </row>
     <row r="11">
@@ -709,25 +1541,103 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>243.499869495178</v>
+        <v>243.5</v>
       </c>
       <c r="C11" t="n">
-        <v>243.5002414229286</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>243.5001329777987</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>243.4046837897729</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>243.5000008466397</v>
+        <v>243.5</v>
       </c>
       <c r="G11" t="n">
-        <v>243.4999993960409</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>243.4999945449935</v>
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>243.4999945449262</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +1645,103 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>149.7998688072092</v>
+        <v>149.8</v>
       </c>
       <c r="C12" t="n">
-        <v>149.8002414229284</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>149.8001329777987</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>149.7046837897727</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>149.8000008466397</v>
+        <v>149.8</v>
       </c>
       <c r="G12" t="n">
-        <v>149.799999396041</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>149.7999945449935</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>149.7999945449263</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +1749,103 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144.399868807209</v>
+        <v>144.4</v>
       </c>
       <c r="C13" t="n">
-        <v>144.4002414229284</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>144.4001329777986</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>144.3046837897727</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>144.4000008466397</v>
+        <v>144.4</v>
       </c>
       <c r="G13" t="n">
-        <v>144.3999993960409</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>144.3999945449935</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>144.4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>144.3999945449263</v>
       </c>
     </row>
     <row r="14">
@@ -787,25 +1853,103 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81.99986880720911</v>
+        <v>82</v>
       </c>
       <c r="C14" t="n">
-        <v>82.00024142292867</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>82.00013297779888</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>81.9046837897729</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>82.00000084663967</v>
+        <v>82</v>
       </c>
       <c r="G14" t="n">
-        <v>81.99999939604086</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>81.99999454499334</v>
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>82</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>82</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>82</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>82</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>81.99999454492634</v>
       </c>
     </row>
     <row r="15">
@@ -813,25 +1957,103 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>79.99986880720911</v>
+        <v>80</v>
       </c>
       <c r="C15" t="n">
-        <v>80.00024142292864</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>80.00013297779847</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>79.90468378977283</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>80.00000084663958</v>
+        <v>80</v>
       </c>
       <c r="G15" t="n">
-        <v>79.99999939604081</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>79.99999454499334</v>
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>80.00000000000003</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>80</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>80</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>80</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>79.99999454492644</v>
       </c>
     </row>
     <row r="16">
@@ -839,25 +2061,103 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>47.89986915400669</v>
+        <v>47.9</v>
       </c>
       <c r="C16" t="n">
-        <v>47.90023540678935</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>47.90013298660222</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>47.80468376298501</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.90000084591183</v>
+        <v>47.9</v>
       </c>
       <c r="G16" t="n">
-        <v>47.89999959616959</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>47.89999454417755</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>47.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>47.89999454411048</v>
       </c>
     </row>
     <row r="17">
@@ -865,25 +2165,103 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>47.4998691540065</v>
+        <v>47.5</v>
       </c>
       <c r="C17" t="n">
-        <v>47.50023540678953</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>47.50013298660208</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>47.404683762985</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>47.50000084591181</v>
+        <v>47.5</v>
       </c>
       <c r="G17" t="n">
-        <v>47.4999995961696</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>47.49999454417757</v>
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>47.49999454411049</v>
       </c>
     </row>
     <row r="18">
@@ -894,21 +2272,99 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>6.318334840076743e-05</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.542103018501327e-05</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>9.745272097988739e-07</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.847151118468545e-08</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,21 +2376,99 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>6.308567229203045e-05</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.555588932385429e-05</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.740408802577911e-07</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.468471038565535e-08</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,21 +2480,99 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>6.308431791171089e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.555595394856108e-05</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9.73925772178109e-07</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.459474440595335e-08</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,21 +2584,99 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>6.318148511338369e-05</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.542056087114432e-05</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>9.744550697045138e-07</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.827147450290476e-08</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,21 +2688,99 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>6.308800116239916e-05</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>5.555400833933208e-05</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>9.742031155756365e-07</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.47428381934123e-08</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,21 +2792,99 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.320072945606202e-05</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.55172467579636e-05</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>9.743856419028461e-07</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.577729154019119e-08</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,21 +2896,99 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>6.057183299588204e-05</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.503425105133845e-05</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>9.753641424433719e-07</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>3.445856222470014e-08</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>6.053201065737709e-05</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.515856094223899e-05</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1091,7 +3015,85 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.22130344378263e-06</v>
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>8.221477114943524e-06</v>
       </c>
     </row>
     <row r="26">
@@ -1102,21 +3104,99 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.31067529205034e-05</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.53936795061062e-05</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>9.744557076382659e-07</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.886092394923371e-08</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,21 +3208,99 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>6.308431791171089e-05</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.555595394856108e-05</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>9.73925772178109e-07</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.459474440595335e-08</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,21 +3312,99 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>6.308151840616451e-05</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.555636585306697e-05</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>9.741406619896921e-07</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.47284629958062e-08</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,21 +3416,99 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.308913219043287e-05</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.555412239247786e-05</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>9.739739562914838e-07</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.479668047808539e-08</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1206,21 +3520,99 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>6.308431791171089e-05</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.555595394856108e-05</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.73925772178109e-07</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.459474440595335e-08</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1232,21 +3624,99 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>6.308457074655464e-05</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.555485103972796e-05</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.740678894586878e-07</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.458435761732374e-08</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,21 +3728,99 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>5.937733714503835e-05</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.489335842274772e-05</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.344996787690042e-07</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.590169443931218e-08</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>11</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1281,25 +3829,103 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>664.7515606439463</v>
+        <v>664.7415060000005</v>
       </c>
       <c r="C33" t="n">
-        <v>693.8002342896469</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>5.404725977050116e-05</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>693.7046837410276</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>693.8000009298407</v>
+        <v>693.8</v>
       </c>
       <c r="G33" t="n">
-        <v>693.7999997532665</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>693.7999945438376</v>
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>10</v>
+      </c>
+      <c r="N33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>693.8</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>693.7999945437708</v>
       </c>
     </row>
     <row r="34">
@@ -1310,22 +3936,100 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>685.3002336883925</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.404703118563604e-05</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>671.5353341831807</v>
+        <v>11</v>
       </c>
       <c r="F34" t="n">
-        <v>685.3000009400773</v>
+        <v>685.3</v>
       </c>
       <c r="G34" t="n">
-        <v>685.2999994817162</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>685.2999945432496</v>
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>10</v>
+      </c>
+      <c r="N34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>685.3</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>685.299994543182</v>
       </c>
     </row>
     <row r="35">
@@ -1336,21 +4040,99 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.411123159977845e-05</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.542781073032857e-05</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>6.389265436714656e-05</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>8</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>11</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>11</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1359,25 +4141,103 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>110.9598050966338</v>
+        <v>110.9599999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>110.9537870986017</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>5.492809766673457e-05</v>
+        <v>19</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>110.9599993533636</v>
+        <v>110.9599999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>110.9600119641728</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>110.959994853176</v>
+        <v>9</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>110.9599999999999</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>110.96</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>110.9599999999999</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>110.96</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>110.9599948530811</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +4245,103 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>115.4981262166148</v>
+        <v>115.5</v>
       </c>
       <c r="C37" t="n">
-        <v>301.8854584166863</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>103.0998712927467</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>266.490436003859</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>515.5000006740022</v>
+        <v>301.8888139999999</v>
       </c>
       <c r="G37" t="n">
-        <v>515.4999994817158</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>515.4999945435183</v>
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>103.1000000000007</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>249.7482899999998</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>515.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>515.4999945434508</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +4349,103 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>507.9998694928412</v>
+        <v>508</v>
       </c>
       <c r="C38" t="n">
-        <v>508.0002342975455</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>508.0001329965067</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>507.9046837413728</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>508.0000008898455</v>
+        <v>508</v>
       </c>
       <c r="G38" t="n">
-        <v>507.9999997508403</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>507.9999945433224</v>
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>508</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>508</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>508</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>508</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>508</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>508</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>507.999994543255</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +4453,103 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>490.3998685171742</v>
+        <v>490.4</v>
       </c>
       <c r="C39" t="n">
-        <v>490.400233771203</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>490.4001329965067</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>490.3046837413729</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>490.4000008851622</v>
+        <v>490.4</v>
       </c>
       <c r="G39" t="n">
-        <v>490.3999997508402</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>490.3999945414988</v>
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>490.4</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>490.3999945414313</v>
       </c>
     </row>
     <row r="40">
@@ -1466,22 +4560,100 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>6.139202642617144e-05</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>5.54500537605116e-05</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>447.9000005430908</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>447.8999945419521</v>
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>447.9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>447.9</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>447.9</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>447.8999945418846</v>
       </c>
     </row>
     <row r="41">
@@ -1492,22 +4664,100 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>54.18020974404586</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>54.18019826448884</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>54.18006812697366</v>
+        <v>3</v>
       </c>
       <c r="F41" t="n">
-        <v>270.9000008031793</v>
+        <v>54.17999999999995</v>
       </c>
       <c r="G41" t="n">
-        <v>270.4792535887615</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>270.8999945326592</v>
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>54.18</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>54.17999999999995</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>270.4792559999996</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>270.9</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>270.8999945325913</v>
       </c>
     </row>
     <row r="42">
@@ -1518,21 +4768,99 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>6.238124514712328e-05</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>5.396994586621849e-05</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" t="n">
-        <v>1.876924215491149e-06</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1541,25 +4869,103 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>248.6998688471461</v>
+        <v>248.7</v>
       </c>
       <c r="C43" t="n">
-        <v>248.7002421216104</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>248.7001329775616</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>248.6046837915005</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>248.700000846691</v>
+        <v>248.7</v>
       </c>
       <c r="G43" t="n">
-        <v>248.6999993828055</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>248.699994545046</v>
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>248.6999945449791</v>
       </c>
     </row>
     <row r="44">
@@ -1567,25 +4973,103 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>247.7998688471463</v>
+        <v>247.8</v>
       </c>
       <c r="C44" t="n">
-        <v>247.8002421216105</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>247.8001329775614</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>247.7046837915005</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>247.8000008466908</v>
+        <v>247.8</v>
       </c>
       <c r="G44" t="n">
-        <v>247.7999993828054</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>247.7999945450462</v>
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>247.7999945449791</v>
       </c>
     </row>
     <row r="45">
@@ -1593,25 +5077,103 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>247.7998688471461</v>
+        <v>247.8</v>
       </c>
       <c r="C45" t="n">
-        <v>247.8002421216103</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>247.8001329775613</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>247.7046837915006</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>247.800000846691</v>
+        <v>247.8</v>
       </c>
       <c r="G45" t="n">
-        <v>247.7999993828054</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>247.7999945450462</v>
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>247.7999945449791</v>
       </c>
     </row>
     <row r="46">
@@ -1622,22 +5184,100 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>6.121774160859739e-05</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.492948908111691e-05</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F46" t="n">
-        <v>244.9000012161453</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>48.98000343990299</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>244.8999945425051</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>48.9800000000604</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>244.9</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>244.8999945424379</v>
       </c>
     </row>
     <row r="47">
@@ -1648,21 +5288,99 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>6.560752987984115e-05</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>5.552917359544748e-05</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F47" t="n">
-        <v>9.973798948502081e-07</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>5</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1674,21 +5392,99 @@
         <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>6.470349601912071e-05</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>5.40059425126459e-05</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48" t="n">
-        <v>3.37525292241903e-07</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>8.174215942920778e-07</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1697,25 +5493,103 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>238.2998699095651</v>
+        <v>238.3</v>
       </c>
       <c r="C49" t="n">
-        <v>238.3002337314287</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>218.6165362602688</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>238.2046837270175</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>238.3000007568297</v>
+        <v>238.3</v>
       </c>
       <c r="G49" t="n">
-        <v>238.2999998503138</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>238.2999945434012</v>
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>218.622688000001</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>238.3</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>238.2999945433341</v>
       </c>
     </row>
     <row r="50">
@@ -1726,22 +5600,100 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>6.236463871039482e-05</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>5.548856390771484e-05</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F50" t="n">
-        <v>212.939091364808</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>236.3999945440558</v>
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>212.9391576791816</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>236.4</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>236.3997409330192</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>236.3999945439884</v>
       </c>
     </row>
     <row r="51">
@@ -1749,13 +5701,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>30.69980722079817</v>
+        <v>30.7</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0002281659121984329</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>30.70020578286321</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1764,10 +5716,88 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>3.520513344532272e-08</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>30.9404315549096</v>
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11</v>
+      </c>
+      <c r="J51" t="n">
+        <v>30.7</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>11</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>30.94000000000074</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>30.93934366576741</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>30.94043156054197</v>
       </c>
     </row>
     <row r="52">
@@ -1778,21 +5808,99 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>6.861537954582011e-05</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>5.548063675838305e-05</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F52" t="n">
-        <v>99.01664137740337</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>7.572482976792361e-07</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>99.01670832081955</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>0.0009154012172416515</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1804,21 +5912,99 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>6.502761586127411e-05</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>5.539120705554306e-05</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>9.90245186623868e-07</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1830,21 +6016,99 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>6.454221656710963e-05</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>5.542286925071389e-05</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>9.716581239170002e-07</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1856,21 +6120,99 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>6.442311363704425e-05</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>5.545935753720308e-05</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>9.728482598416256e-07</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1.751238547171254e-08</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1882,21 +6224,99 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>6.462735439944153e-05</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>5.540031465100026e-05</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>9.747333127743862e-07</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1908,21 +6328,99 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>7.723851847036607e-05</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>5.48312392604708e-05</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>9.814317865955344e-07</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>6.240138107961826e-05</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>5.429700760979659e-05</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
@@ -1949,6 +6447,84 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>7</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1960,21 +6536,99 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>7.59506042168736e-05</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>5.508094244320325e-05</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59" t="n">
-        <v>9.802732285632664e-07</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>3.386763467446742e-08</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1986,21 +6640,99 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>6.383577110553556e-05</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5.762804572792221e-05</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>9.792676433927278e-07</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.649539426234724e-07</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2012,21 +6744,99 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>6.318338408075404e-05</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>5.538425567965224e-05</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>9.79299224910772e-07</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.962196088310026e-07</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2038,21 +6848,99 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>6.383764972510539e-05</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>5.762308657968985e-05</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>9.79299224910772e-07</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>1.026732888858865e-07</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2064,21 +6952,99 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>6.318375042850682e-05</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>5.538396148339582e-05</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>9.793603891459708e-07</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2090,21 +7056,99 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>6.005302178295653e-05</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>5.497395483906114e-05</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>9.749490982189832e-07</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>3.504777022760335e-08</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2116,21 +7160,99 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>5.983872063324376e-05</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>5.495000673738454e-05</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>9.754864836015459e-07</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>3.532007529347302e-08</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2142,21 +7264,99 @@
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>5.98693036898538e-05</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>5.495218000329023e-05</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>9.751917882557435e-07</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>3.518045642511971e-08</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2168,21 +7368,99 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>6.310255933515495e-05</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>5.555097629177509e-05</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>9.740429038294839e-07</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>2.46392471446708e-08</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2194,21 +7472,99 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>6.111160165230367e-05</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>5.509561470995211e-05</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>9.752743023264073e-07</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>3.362205217767393e-08</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2220,21 +7576,99 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>6.133784565987463e-05</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>5.512487898953846e-05</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>9.758424327100485e-07</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>3.332431434293361e-08</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2246,21 +7680,99 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>7.653679711048097e-05</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>5.512282996492485e-05</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>9.762792585751559e-07</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>3.332026927690919e-08</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2272,21 +7784,99 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>7.653778756660913e-05</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>5.512601331473269e-05</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>9.763406194683621e-07</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>3.332176541572691e-08</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2298,21 +7888,99 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>7.410242948534918e-05</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>5.512511337868008e-05</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>9.760759042664449e-07</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2324,21 +7992,99 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>7.556551098482231e-05</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>5.512376785065252e-05</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>9.75924857128811e-07</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>3.334742056280231e-08</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2350,21 +8096,99 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>6.111228797383192e-05</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>5.50951123146206e-05</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>9.752638665553743e-07</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>3.366423009354431e-08</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2376,21 +8200,99 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>6.098492525358252e-05</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>5.508066146209963e-05</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>9.752229928859325e-07</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>3.398368211992754e-08</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2402,21 +8304,99 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>6.123791962372348e-05</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>5.511016200116987e-05</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>9.752597767595514e-07</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>3.34680983978837e-08</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2428,21 +8408,99 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>6.147280941622688e-05</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>5.513876922155467e-05</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>9.800130006735376e-07</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>3.311299950167895e-08</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH77" t="n">
         <v>0</v>
       </c>
     </row>
